--- a/output_data/wui_by_building_2023-07-10.xlsx
+++ b/output_data/wui_by_building_2023-07-10.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhmockrin\Documents\la_wui\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9C140550-28B9-44FA-883D-D377554B6DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EDE55B-86E5-48E4-85FF-95E19F7DF318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17595" yWindow="1140" windowWidth="16965" windowHeight="18600"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wui_by_building_2023-07-10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Total</t>
   </si>
@@ -95,15 +108,54 @@
   </si>
   <si>
     <t>WUI Class</t>
+  </si>
+  <si>
+    <t>Supplemental Table 1. WUI classification for all buildings within the fire perimeter, and destruction rate (the proportion of buildings in each class that were destroyed by the wildfire).</t>
+  </si>
+  <si>
+    <t>6,050 (63.0%)</t>
+  </si>
+  <si>
+    <t>3,028 (27.8%)</t>
+  </si>
+  <si>
+    <t>2,613 (27.2%)</t>
+  </si>
+  <si>
+    <t>Non WUI, with Vegetation</t>
+  </si>
+  <si>
+    <t>NonWUI, without</t>
+  </si>
+  <si>
+    <t>Vegetation.</t>
+  </si>
+  <si>
+    <t>1,302 (100%)</t>
+  </si>
+  <si>
+    <t>9,599 (100%)</t>
+  </si>
+  <si>
+    <t>Number of Buildings (percent of total)</t>
+  </si>
+  <si>
+    <t>Destroyed buildings (percent of total)</t>
+  </si>
+  <si>
+    <t>Survived buildings (percent of total)</t>
+  </si>
+  <si>
+    <t>Destruction rate (percent of buildings in this class destroyed)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -582,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -594,9 +646,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,18 +1004,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="2" max="2" width="13.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
@@ -1074,8 +1127,125 @@
         <v>9</v>
       </c>
       <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <f>1302/10901*100</f>
+        <v>11.943858361618199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.11899999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>